--- a/PHASE_FPGA_MAIN_01_REFDES.xlsx
+++ b/PHASE_FPGA_MAIN_01_REFDES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="28800" windowHeight="14712"/>
+    <workbookView xWindow="1776" yWindow="0" windowWidth="28800" windowHeight="14712"/>
   </bookViews>
   <sheets>
     <sheet name="PHASE_FPGA_MAIN_01" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7867" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7868" uniqueCount="2057">
   <si>
     <t>#</t>
   </si>
@@ -6536,9 +6536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6553,8 +6551,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>2</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
